--- a/ausgang/test_02_Ausgang.xlsx
+++ b/ausgang/test_02_Ausgang.xlsx
@@ -1,21 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>Artikelnummer</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>KL5011</t>
+  </si>
+  <si>
+    <t>KL5012</t>
+  </si>
+  <si>
+    <t>KL5013</t>
+  </si>
+  <si>
+    <t>KL5014</t>
+  </si>
+  <si>
+    <t>KL5015</t>
+  </si>
+  <si>
+    <t>KL5016</t>
+  </si>
+  <si>
+    <t>Empfänger</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>3 HUN; 3 PL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,10 +92,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +185,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +393,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ausgang/test_02_Ausgang.xlsx
+++ b/ausgang/test_02_Ausgang.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ausgang/test_02_Ausgang.xlsx
+++ b/ausgang/test_02_Ausgang.xlsx
@@ -1,76 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>Artikelnummer</t>
-  </si>
-  <si>
-    <t>Menge</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>KL5011</t>
-  </si>
-  <si>
-    <t>KL5012</t>
-  </si>
-  <si>
-    <t>KL5013</t>
-  </si>
-  <si>
-    <t>KL5014</t>
-  </si>
-  <si>
-    <t>KL5015</t>
-  </si>
-  <si>
-    <t>KL5016</t>
-  </si>
-  <si>
-    <t>Empfänger</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>HUN</t>
-  </si>
-  <si>
-    <t>3 HUN; 3 PL</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -393,113 +409,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col width="15.77734375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Artikelnummer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Menge</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Empfänger</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AS5011</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KL5012</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KL5013</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KL5014</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KL5015</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3 HUN; 3 PL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KL5016</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
